--- a/biology/Zoologie/Asterina/Asterina.xlsx
+++ b/biology/Zoologie/Asterina/Asterina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Asterina est un genre d'étoiles de mer de la famille des Asterinidae.
 </t>
@@ -511,10 +523,12 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont de petites étoiles aplaties et pentagonales, généralement pourvues de 5 bras courts et triangulaires, avec une face actinale (inférieure) plate. Les espèces de ce genre sont extrêmement similaires, et se distinguent essentiellement par leur répartition, et secondairement par la taille et la forme, même si ces critères sont d'une fiabilité limitée étant donné leur variabilité ; d'autre critères sont utilisés en laboratoire, notamment la nature et la disposition des plaques squelettiques[1].
-Plusieurs de ces espèces sont hermaphrodites successives, et toutes semblent avoir des œufs benthiques : les juvéniles en sortent déjà formés, sans passer par un stade planctonique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont de petites étoiles aplaties et pentagonales, généralement pourvues de 5 bras courts et triangulaires, avec une face actinale (inférieure) plate. Les espèces de ce genre sont extrêmement similaires, et se distinguent essentiellement par leur répartition, et secondairement par la taille et la forme, même si ces critères sont d'une fiabilité limitée étant donné leur variabilité ; d'autre critères sont utilisés en laboratoire, notamment la nature et la disposition des plaques squelettiques.
+Plusieurs de ces espèces sont hermaphrodites successives, et toutes semblent avoir des œufs benthiques : les juvéniles en sortent déjà formés, sans passer par un stade planctonique.
 Cette espèce est le genre-type de la famille des Asterinidae : ainsi la plupart des autres espèces de cette famille ont historiquement fait partie du genre Asterina avant d'être déplacées dans les genres créés par la suite, et ce genre est aujourd'hui essentiellement restreint à des espèces atlantiques et tempérées.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Asterina fimbriata séchée (MNHN)
